--- a/biology/Botanique/Samanea_saman/Samanea_saman.xlsx
+++ b/biology/Botanique/Samanea_saman/Samanea_saman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Albizia saman (anciennement Samanea saman), arbre à pluie, ou bois noir d'Haïti est une espèce d'arbres de la famille des Fabaceae. C'est une espèce originaire d'Amérique du Sud.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre à pluie peut mesurer jusqu'à 25 m de haut[1]. Il a un port très large, sa forme est comparable à un parasol dont le diamètre peut mesurer jusqu'à 40 m.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre à pluie peut mesurer jusqu'à 25 m de haut. Il a un port très large, sa forme est comparable à un parasol dont le diamètre peut mesurer jusqu'à 40 m.
 L'écorce est grise à brun grisâtre, sur le jeune arbre, elle est encore lisse, puis rugueuse et fissurée. L'écorce interne est brun clair à gris rose. Le bois, tendre et léger, possède un aubier jaunâtre et un duramen brun chocolat qui devient brun doré au séchage et présente des rayures noires. Sur les sites secs, l'arbre est profondément enraciné, sur les sols humides, un système racinaire extrêmement plat se forme.
 L'arbre de pluie est à feuilles persistantes dans les forêts tropicales ombrophiles, mais perd ses feuilles dans les forêts sèches pendant la saison sèche et peut ne pas avoir de feuilles pendant deux mois. Les feuilles sont doubles pennées et alternes. Elles mesurent 25 à 40 centimètres de long avec des tiges finement poilues. Les pinnates portent 2 à 10 paires de pinnules de 10 cm de long et de 5 cm de large. Les folioles sont entières, en losange asymétrique, ont une extrémité minuscule et sont effilées à la base en pointe. Le sommet est un peu plus foncé que le fond finement poilu.
 Une particularité de l'arbre à pluie est le pliage nocturne des folioles opposées, qui se produit également par temps pluvieux ou par temps couvert.
@@ -550,7 +564,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce pousse dans toute la zone néotropicale. Elle a été largement introduite en Asie du sud-est et dans certaines îles du Pacifique telles Hawaï et la Nouvelle-Calédonie où elle servait autrefois à abriter les plantations de caféiers en plaine et faire de l'ombre au bétail.
 </t>
@@ -581,7 +597,9 @@
           <t>Séquestration du dioxyde de carbone</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon une étude réalisée à l'École de foresterie de l'Institut d'agriculture de Bogor en Indonésie, un arbre mature d'un diamètre de cime de 15 mètres absorbe 28,5 tonnes de dioxyde de carbone par an.
 </t>
@@ -612,11 +630,13 @@
           <t>Arbres remarquables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours de ses voyages entre 1799 et 1804 dans les Amériques, Alexander von Humboldt rencontra un Saman géant près de Maracay au Venezuela. Il a mesuré la circonférence de la calotte en forme de parasol à environ 180 m, son diamètre était d’environ 60 m, sur un tronc de 2,8 m de diamètre et atteignant à peine 19 m de hauteur. Humboldt a mentionné que l'arbre aurait peu changé depuis la colonisation espagnole du Venezuela ; il l'a estimé aussi vieux que le célèbre dragonnier des îles Canaries (Dracaena draco) d'Icod de los Vinos à Tenerife.
-L'arbre, appelé Samán de Güere a été déclaré "monument historique" en 1933 par le dictateur vénézuélien Juan Vicente Gómez. Malheureusement, ce dernier, déjà en déclin dans les années 50, a fini par tomber à la suite d'un fort orage en 2000 [2]. Tout comme l'arbre du dragon à Tenerife, l'âge du saman au Venezuela était indéterminé mais selon le rapport de von Humboldt, il aurait eu plus de 500 ans aujourd'hui.
-Un autre spécimen célèbre appelé "arbre de pluie du Brahmapoutre" situé à Guwahati sur les rives du fleuve Brahmapoutre à Assam, en Inde, possède le tronc le plus épais de tous les Samans : environ 3,7 mètres de diamètre à hauteur de poitrine [3].
+L'arbre, appelé Samán de Güere a été déclaré "monument historique" en 1933 par le dictateur vénézuélien Juan Vicente Gómez. Malheureusement, ce dernier, déjà en déclin dans les années 50, a fini par tomber à la suite d'un fort orage en 2000 . Tout comme l'arbre du dragon à Tenerife, l'âge du saman au Venezuela était indéterminé mais selon le rapport de von Humboldt, il aurait eu plus de 500 ans aujourd'hui.
+Un autre spécimen célèbre appelé "arbre de pluie du Brahmapoutre" situé à Guwahati sur les rives du fleuve Brahmapoutre à Assam, en Inde, possède le tronc le plus épais de tous les Samans : environ 3,7 mètres de diamètre à hauteur de poitrine .
 À Kanchanaburi, en Thaïlande, se trouve également un arbre à pluie géant dont l'âge est au moins estimé à 100 ans. Il est connu localement sous le nom de «chamchuri-yak» (จามจุรี ยักษ์). "Chamchuri" est le nom thaï de cette espèce d'arbre, tandis que "yak" est la prononciation thaïe de yaksha, un démon mythique, faisant référence dans ce contexte à la taille "monstrueuse" de l'arbre, qui culmine à 20 m de hauteur pour une canopée dépassant les 51 mètres de diamètre.
 </t>
         </is>
@@ -646,9 +666,11 @@
           <t>Caractère envahissant</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albizia saman est une espèce potentiellement envahissante. C'est le cas notamment en Nouvelle-Calédonie où elle a été introduite en 1902, et où elle présente un risque modéré[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albizia saman est une espèce potentiellement envahissante. C'est le cas notamment en Nouvelle-Calédonie où elle a été introduite en 1902, et où elle présente un risque modéré.
 </t>
         </is>
       </c>
